--- a/02_data/to_extract/rob_left_todo.xlsx
+++ b/02_data/to_extract/rob_left_todo.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -827,7 +827,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bergé_2016</t>
+          <t>bhattacharrya_2020</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -850,64 +850,59 @@
           <t>any psychosis outcome</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>double-publication</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H11">
-        <v>98</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bhattacharrya_2020</t>
+          <t>bloemen_2009</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>cohort</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Oliver(2020)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>double-publication</t>
+          <t>transition to psychosis</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>not extracted</t>
+          <t>CHR</t>
         </is>
       </c>
       <c r="H12">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bloemen_2009</t>
+          <t>buchy_2015</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -922,7 +917,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Oliver(2020)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -936,168 +931,173 @@
         </is>
       </c>
       <c r="H13">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>buchy_2015</t>
+          <t>caspi_2005</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>Any psychosis outcome</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Farris (2019)</t>
+          <t>Sorkhou(2021)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>transition to psychosis</t>
+          <t>Any psychosis outcome</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>double-publication</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CHR</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H14">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>caspi_2005</t>
+          <t>corcoran_2008</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Any psychosis outcome</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>cohort</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sorkhou(2021)</t>
+          <t>Kraan (2016)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>double-publication</t>
+          <t>transition to psychosis</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>not extracted</t>
+          <t>CHR</t>
         </is>
       </c>
       <c r="H15">
-        <v>148</v>
+        <v>184</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>clausen_2014</t>
+          <t>deighton_2016</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>cohort</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Oliver(2020)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>transition to psychosis</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>no cannabis use data reported</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H16">
-        <v>159</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+        <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>colizzi_2016</t>
+          <t>devylder_2014</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>cohort</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Oliver(2020)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>transition to psychosis</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>CHR</t>
         </is>
       </c>
       <c r="H17">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>corcoran_2008</t>
+          <t>dragt_2011</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kraan (2016)</t>
+          <t>van der Meer (2012)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1122,177 +1122,177 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CHR</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H18">
-        <v>184</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+        <v>233</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>deighton_2016</t>
+          <t>emsley_2020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Oliver(2020)</t>
+          <t>Athanassiou (2021)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>transition to psychosis</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>no cannabis use data reported</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>not extracted</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H19">
-        <v>199</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>devylder_2014</t>
+          <t>fond_2019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Oliver(2020)</t>
+          <t>Athanassiou (2021)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>transition to psychosis</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CHR</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H20">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dragt_2011</t>
+          <t>foti_2010</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>transition</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cohort</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>van der Meer (2012)</t>
+          <t>Athanassiou (2021)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>transition to psychosis</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>not extracted</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H21">
-        <v>233</v>
+        <v>293</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>emsley_2020</t>
+          <t>gapdata_2012</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>Any psychosis outcome</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>prospective cohort</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Moore (2007)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>Any psychosis outcome</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>not prospective longitudinal</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H22">
-        <v>254</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>fond_2019</t>
+          <t>griffith-lendering_2013</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>Any psychosis outcome</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1302,32 +1302,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Sorkhou(2021)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>Any psychosis outcome</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>no relevant outcome</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H23">
-        <v>291</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+        <v>340</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>foti_2010</t>
+          <t>hadden_2018</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1356,23 +1356,18 @@
         </is>
       </c>
       <c r="H24">
-        <v>293</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+        <v>349</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gapdata_2012</t>
+          <t>konings_2012</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Any psychosis outcome</t>
+          <t>Psychotic-like-experiences</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1382,37 +1377,37 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Moore (2007)</t>
+          <t>Ragazzi(2017)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>not prospective longitudinal</t>
+          <t>total PLE</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>not extracted</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H25">
-        <v>312</v>
+        <v>413</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>griffith-lendering_2013</t>
+          <t>martínezarévalo_1994</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Any psychosis outcome</t>
+          <t>relapse</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1422,152 +1417,147 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sorkhou(2021)</t>
+          <t>Zammit (2008)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>no relevant outcome</t>
+          <t>Relapse</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>not extracted</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H26">
-        <v>340</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hadden_2018</t>
+          <t>marwaha_2018</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Environmental Moderators</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Godin(2022)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>any psychosis outcome</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H27">
-        <v>349</v>
+        <v>482</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hides_2006</t>
+          <t>peters_2009</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>relapse</t>
+          <t>CHR symptoms</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>cohort</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Zammit (2008)</t>
+          <t>Van de Meer(2012)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Relapse</t>
+          <t>CHR symptoms</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>not prospective longitudinal</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H28">
-        <v>370</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+        <v>555</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>konings_2012</t>
+          <t>rømerthomsen_2018</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Psychotic-like-experiences</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>prospective cohort</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ragazzi(2017)</t>
+          <t>Athanassiou (2021)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>total PLE</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H29">
-        <v>413</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+        <v>607</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>marino_2020</t>
+          <t>vandermeer_2015</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>relapse</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1577,12 +1567,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Schoeler (2016)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>Relapse</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1591,138 +1581,133 @@
         </is>
       </c>
       <c r="H30">
-        <v>473</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+        <v>716</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>martínezarévalo_1994</t>
+          <t>vangastel_2014</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>relapse</t>
+          <t>Psychotic-like-experiences</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>prospective cohort</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Zammit (2008)</t>
+          <t>Ragazzi(2017)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Relapse</t>
+          <t>total PLE</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>double-publication</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H31">
-        <v>477</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>marwaha_2018</t>
+          <t>vanos_2002</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Environmental Moderators</t>
+          <t>psychotic symptoms</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>prospective cohort</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Godin(2022)</t>
+          <t>Szoke(2014)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>Psychotic symptoms</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>not extracted</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H32">
-        <v>482</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+        <v>736</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ouellet-plamondon_2017</t>
+          <t>vantricht_2013</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>CHR symptoms</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>cohort</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Carney (2017)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>Positive Symptoms</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>not prospective longitudinal</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H33">
-        <v>543</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+        <v>745</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>peters_2009</t>
+          <t>weiser_2002</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CHR symptoms</t>
+          <t>Any psychosis outcome</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1732,77 +1717,77 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Van de Meer(2012)</t>
+          <t>Henquet (2005)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CHR symptoms</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>not prospective longitudinal</t>
+          <t>Any psychosis outcome</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>not extracted</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H34">
-        <v>555</v>
+        <v>768</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rentero_2020</t>
+          <t>winton-brown_2014</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>CHR symptoms</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>cohort</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Farris (2019)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>Negative Symptoms</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>no relevant outcome</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H35">
-        <v>577</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+        <v>777</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>rømerthomsen_2018</t>
+          <t>zammit_2004</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>Any psychosis outcome</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1812,450 +1797,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Moore (2007)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>Any psychosis outcome</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>double-publication</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>not extracted</t>
         </is>
       </c>
       <c r="H36">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>schoeler_2016</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H37">
-        <v>630</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>seddon_2016</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
-      </c>
-      <c r="H38">
-        <v>649</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>setién-suero_2019</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H39">
-        <v>652</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>stone_2014</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H40">
-        <v>687</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vandermeer_2015</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>relapse</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Schoeler (2016)</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Relapse</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="H41">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>vangastel_2014</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Psychotic-like-experiences</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>prospective cohort</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Ragazzi(2017)</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>total PLE</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>double-publication</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
-      </c>
-      <c r="H42">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>vanos_2002</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>psychotic symptoms</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>prospective cohort</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Szoke(2014)</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Psychotic symptoms</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="H43">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>vantricht_2013</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>CHR symptoms</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Carney (2017)</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Positive Symptoms</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>not prospective longitudinal</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
-      </c>
-      <c r="H44">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>weiser_2002</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Henquet (2005)</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>HP</t>
-        </is>
-      </c>
-      <c r="H45">
-        <v>768</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>winton-brown_2014</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CHR symptoms</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>cohort</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Farris (2019)</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Negative Symptoms</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>no relevant outcome</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
-      </c>
-      <c r="H46">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>zammit_2004</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Moore (2007)</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>double-publication</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>not extracted</t>
-        </is>
-      </c>
-      <c r="H47">
         <v>788</v>
       </c>
     </row>
